--- a/Web/files/ELM forecasting/FORECAST ELM.xlsx
+++ b/Web/files/ELM forecasting/FORECAST ELM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465034A-718E-4DC2-9B1F-CF4C8C13CBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A8ED9-34E8-4E17-A9C6-AED0C25B92D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI1" sheetId="1" r:id="rId1"/>
@@ -100,13 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,13 +1071,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D509CE1-9765-47A3-882E-4B28021CA320}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,8 +1105,8 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="3">
-        <v>45.007682665611007</v>
+      <c r="B2" s="4">
+        <v>51.378785999999998</v>
       </c>
       <c r="C2" s="3">
         <v>45.007682665611007</v>
@@ -3044,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B560A-1A2B-47C6-8C44-2FE62788F89A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/Web/files/ELM forecasting/FORECAST ELM.xlsx
+++ b/Web/files/ELM forecasting/FORECAST ELM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Kuliah\TA\Projek-TA\Web\files\ELM forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A8ED9-34E8-4E17-A9C6-AED0C25B92D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5409062C-D39B-4097-A16C-D115B064B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DKI1" sheetId="1" r:id="rId1"/>
@@ -100,14 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1071,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,11 +1104,11 @@
       <c r="A2" s="2">
         <v>44896</v>
       </c>
-      <c r="B2" s="4">
-        <v>51.378785999999998</v>
+      <c r="B2" s="3">
+        <v>45.007682665611007</v>
       </c>
       <c r="C2" s="3">
-        <v>45.007682665611007</v>
+        <v>31.246926210000002</v>
       </c>
       <c r="D2" s="3">
         <v>17.121440151718659</v>
@@ -1129,7 +1128,7 @@
         <v>56.97089205065501</v>
       </c>
       <c r="C3" s="3">
-        <v>56.97089205065501</v>
+        <v>32.464636249999998</v>
       </c>
       <c r="D3" s="3">
         <v>13.682170962108311</v>
@@ -1149,7 +1148,7 @@
         <v>55.391163549599923</v>
       </c>
       <c r="C4" s="3">
-        <v>55.391163549599923</v>
+        <v>35.1441199</v>
       </c>
       <c r="D4" s="3">
         <v>14.22355161678921</v>
@@ -1169,7 +1168,7 @@
         <v>65.344139464430896</v>
       </c>
       <c r="C5" s="3">
-        <v>65.344139464430896</v>
+        <v>36.81661398</v>
       </c>
       <c r="D5" s="3">
         <v>19.047922990876071</v>
@@ -1189,7 +1188,7 @@
         <v>51.874529091220673</v>
       </c>
       <c r="C6" s="3">
-        <v>51.874529091220673</v>
+        <v>32.838756609999997</v>
       </c>
       <c r="D6" s="3">
         <v>27.89738500639827</v>
@@ -1209,7 +1208,7 @@
         <v>51.896173479915497</v>
       </c>
       <c r="C7" s="3">
-        <v>51.896173479915497</v>
+        <v>31.73053827</v>
       </c>
       <c r="D7" s="3">
         <v>26.11084914756891</v>
@@ -1229,7 +1228,7 @@
         <v>61.701813545376638</v>
       </c>
       <c r="C8" s="3">
-        <v>61.701813545376638</v>
+        <v>33.694716309999997</v>
       </c>
       <c r="D8" s="3">
         <v>20.778901734699669</v>
@@ -1249,7 +1248,7 @@
         <v>55.757075647952462</v>
       </c>
       <c r="C9" s="3">
-        <v>55.757075647952462</v>
+        <v>33.779772960000003</v>
       </c>
       <c r="D9" s="3">
         <v>11.258105941484001</v>
@@ -1269,7 +1268,7 @@
         <v>56.61564672855819</v>
       </c>
       <c r="C10" s="3">
-        <v>56.61564672855819</v>
+        <v>32.705885979999998</v>
       </c>
       <c r="D10" s="3">
         <v>10.18739287033419</v>
@@ -1289,7 +1288,7 @@
         <v>47.749715603047107</v>
       </c>
       <c r="C11" s="3">
-        <v>47.749715603047107</v>
+        <v>31.984211080000001</v>
       </c>
       <c r="D11" s="3">
         <v>16.80691650705354</v>
@@ -1309,7 +1308,7 @@
         <v>52.521798118740051</v>
       </c>
       <c r="C12" s="3">
-        <v>52.521798118740051</v>
+        <v>31.181223630000002</v>
       </c>
       <c r="D12" s="3">
         <v>12.99018961306451</v>
@@ -1329,7 +1328,7 @@
         <v>55.684645377476237</v>
       </c>
       <c r="C13" s="3">
-        <v>55.684645377476237</v>
+        <v>31.288028440000001</v>
       </c>
       <c r="D13" s="3">
         <v>26.970776663934281</v>
@@ -1349,7 +1348,7 @@
         <v>52.100630406555467</v>
       </c>
       <c r="C14" s="3">
-        <v>52.100630406555467</v>
+        <v>32.233465639999999</v>
       </c>
       <c r="D14" s="3">
         <v>25.890537829295049</v>
@@ -1369,7 +1368,7 @@
         <v>56.96143835542906</v>
       </c>
       <c r="C15" s="3">
-        <v>56.96143835542906</v>
+        <v>32.1091689</v>
       </c>
       <c r="D15" s="3">
         <v>33.781761341894963</v>
@@ -1389,7 +1388,7 @@
         <v>57.143386394807962</v>
       </c>
       <c r="C16" s="3">
-        <v>57.143386394807962</v>
+        <v>31.529856980000002</v>
       </c>
       <c r="D16" s="3">
         <v>32.806874850675769</v>
@@ -1409,7 +1408,7 @@
         <v>49.690769997406314</v>
       </c>
       <c r="C17" s="3">
-        <v>49.690769997406314</v>
+        <v>31.752060369999999</v>
       </c>
       <c r="D17" s="3">
         <v>32.737689308924502</v>
@@ -1429,7 +1428,7 @@
         <v>56.83265093081711</v>
       </c>
       <c r="C18" s="3">
-        <v>56.83265093081711</v>
+        <v>33.437345460000003</v>
       </c>
       <c r="D18" s="3">
         <v>23.43037205731498</v>
@@ -1449,7 +1448,7 @@
         <v>49.467753315241417</v>
       </c>
       <c r="C19" s="3">
-        <v>49.467753315241417</v>
+        <v>33.953034770000002</v>
       </c>
       <c r="D19" s="3">
         <v>26.654716786721188</v>
@@ -1469,7 +1468,7 @@
         <v>50.185256680858593</v>
       </c>
       <c r="C20" s="3">
-        <v>50.185256680858593</v>
+        <v>32.989783359999997</v>
       </c>
       <c r="D20" s="3">
         <v>33.31784433989543</v>
@@ -1489,7 +1488,7 @@
         <v>60.430073991628703</v>
       </c>
       <c r="C21" s="3">
-        <v>60.430073991628703</v>
+        <v>32.528868750000001</v>
       </c>
       <c r="D21" s="3">
         <v>41.285636743182927</v>
@@ -1509,7 +1508,7 @@
         <v>50.945410801820593</v>
       </c>
       <c r="C22" s="3">
-        <v>50.945410801820593</v>
+        <v>32.867997090000003</v>
       </c>
       <c r="D22" s="3">
         <v>41.569897632688047</v>
@@ -1529,7 +1528,7 @@
         <v>52.088408975666233</v>
       </c>
       <c r="C23" s="3">
-        <v>52.088408975666233</v>
+        <v>32.840477640000003</v>
       </c>
       <c r="D23" s="3">
         <v>16.395836960532449</v>
@@ -1549,7 +1548,7 @@
         <v>47.349541957335369</v>
       </c>
       <c r="C24" s="3">
-        <v>47.349541957335369</v>
+        <v>32.607683979999997</v>
       </c>
       <c r="D24" s="3">
         <v>26.318941560558851</v>
@@ -1569,7 +1568,7 @@
         <v>51.513768569268542</v>
       </c>
       <c r="C25" s="3">
-        <v>51.513768569268542</v>
+        <v>32.173532999999999</v>
       </c>
       <c r="D25" s="3">
         <v>32.998420611520743</v>
@@ -1589,7 +1588,7 @@
         <v>50.856996917496659</v>
       </c>
       <c r="C26" s="3">
-        <v>50.856996917496659</v>
+        <v>31.729521770000002</v>
       </c>
       <c r="D26" s="3">
         <v>28.091296745052599</v>
@@ -1609,7 +1608,7 @@
         <v>51.310600477012557</v>
       </c>
       <c r="C27" s="3">
-        <v>51.310600477012557</v>
+        <v>31.861761220000002</v>
       </c>
       <c r="D27" s="3">
         <v>35.875489230306648</v>
@@ -1629,7 +1628,7 @@
         <v>44.224570054847312</v>
       </c>
       <c r="C28" s="3">
-        <v>44.224570054847312</v>
+        <v>32.369893779999998</v>
       </c>
       <c r="D28" s="3">
         <v>40.802479485155111</v>
@@ -1649,7 +1648,7 @@
         <v>49.114302476632552</v>
       </c>
       <c r="C29" s="3">
-        <v>49.114302476632552</v>
+        <v>32.556455249999999</v>
       </c>
       <c r="D29" s="3">
         <v>18.763933439611009</v>
@@ -1669,7 +1668,7 @@
         <v>42.314005337487743</v>
       </c>
       <c r="C30" s="3">
-        <v>42.314005337487743</v>
+        <v>32.15151007</v>
       </c>
       <c r="D30" s="3">
         <v>21.299129198696999</v>
@@ -1689,7 +1688,7 @@
         <v>49.268794964849548</v>
       </c>
       <c r="C31" s="3">
-        <v>49.268794964849548</v>
+        <v>32.228290020000003</v>
       </c>
       <c r="D31" s="3">
         <v>10.35794223361189</v>
@@ -1709,7 +1708,7 @@
         <v>46.135086342904827</v>
       </c>
       <c r="C32" s="3">
-        <v>46.135086342904827</v>
+        <v>32.79541184</v>
       </c>
       <c r="D32" s="3">
         <v>43.155910307154841</v>
